--- a/biology/Histoire de la zoologie et de la botanique/Christen_Smith/Christen_Smith.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Christen_Smith/Christen_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christen Smith (né le 17 octobre 1785 à Skoger près de Drammen, mort le 22 septembre 1816 au fleuve Congo) était un botaniste et un explorateur norvégien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christen Smith était le fils d'un propriétaire terrien norvégien. Il a été scolarisé à Kongsberg avant d'étudier la médecine à l'université de Copenhague. Après l'obtention de son examen, il travailla à l'hôpital Frederiks de Copenhague de 1810 à 1811. Au cours de ses études, il commença à s'intéresser à la botanique sous l'influence de Martin Vahl et Jens Wilken Hornemann. En 1808 il effectua, en compagnie d'Hornemann et de Martin Petrowitsch Wormskiold, une excursion dans les montagnes norvégiennes qu'il poursuivit seul à cause de la guerre suédo-danoise qui venait d'éclater. Il y ramassa de nombreuses mousses ainsi que d'autres plantes inconnues qui le rendirent célèbre dans le milieu des sciences naturelles. Durant l'été 1812 il effectua, en compagnie de Joakim Frederik Schouw, une deuxième excursion dans les montagnes encore inexplorées du Telemark et du Hallingdal, qui contribua encore à renforcer sa renommée scientifique.
 En 1814 il fut nommé professeur de botanique et d'agriculture à l'université d'Oslo. Un peu auparavant, après la mort de son père, Smith avait hérité de l'argent qu'il désirait consacrer à l'étude de la nature dans d'autres pays. Son premier voyage à l'étranger le conduisit en Grande-Bretagne qu'il visita intensément jusqu'à la fin de cette année-là. Dans la maison de Joseph Banks, Smith fit la connaissance de nombreux chercheurs, dont le géologue Leopold von Buch avec lequel Smith planifia un voyage vers Madère et les îles Canaries.
